--- a/Netflix/netflix_cust_Configuration_Prod_MySQL_Build_V2.xlsx
+++ b/Netflix/netflix_cust_Configuration_Prod_MySQL_Build_V2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Madhura\Documents\delivery-qa\Netflix\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="510" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="510" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="VERSION" sheetId="8" r:id="rId1"/>
@@ -137,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="276">
   <si>
     <t>TESTCASE_ID</t>
   </si>
@@ -1024,6 +1029,9 @@
   </si>
   <si>
     <t>MYSQL:prod-dm-db.cbunub7rhxo4.us-west-2.rds.amazonaws.com:3306:app_test:shamna:Num3r!fy</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -2157,19 +2165,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_6" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_4" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_3" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="list_2" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="list_2" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="list_1" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2177,23 +2185,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_7" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_6" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_4" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="list_1" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_3" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2239,7 +2247,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2274,7 +2282,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2660,8 +2668,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:S1146"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2752,7 +2760,7 @@
       </c>
       <c r="B2" s="57"/>
       <c r="C2" s="57" t="s">
-        <v>110</v>
+        <v>275</v>
       </c>
       <c r="D2" s="57" t="s">
         <v>207</v>
@@ -3096,7 +3104,7 @@
       </c>
       <c r="B10" s="57"/>
       <c r="C10" s="57" t="s">
-        <v>110</v>
+        <v>275</v>
       </c>
       <c r="D10" s="57" t="s">
         <v>207</v>
@@ -3139,7 +3147,7 @@
       </c>
       <c r="B11" s="57"/>
       <c r="C11" s="57" t="s">
-        <v>110</v>
+        <v>275</v>
       </c>
       <c r="D11" s="57" t="s">
         <v>207</v>
@@ -3182,7 +3190,7 @@
       </c>
       <c r="B12" s="57"/>
       <c r="C12" s="57" t="s">
-        <v>110</v>
+        <v>275</v>
       </c>
       <c r="D12" s="57" t="s">
         <v>207</v>
@@ -3354,7 +3362,7 @@
       </c>
       <c r="B16" s="57"/>
       <c r="C16" s="57" t="s">
-        <v>110</v>
+        <v>275</v>
       </c>
       <c r="D16" s="57" t="s">
         <v>207</v>
@@ -27519,7 +27527,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>

--- a/Netflix/netflix_cust_Configuration_Prod_MySQL_Build_V2.xlsx
+++ b/Netflix/netflix_cust_Configuration_Prod_MySQL_Build_V2.xlsx
@@ -2165,19 +2165,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_4" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_6" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="list_2" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="list_1" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="list_1" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_3" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2185,23 +2185,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_4" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_7" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_6" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_3" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="list_2" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2668,8 +2668,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:S1146"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="B14" s="57"/>
       <c r="C14" s="57" t="s">
-        <v>110</v>
+        <v>275</v>
       </c>
       <c r="D14" s="57" t="s">
         <v>207</v>

--- a/Netflix/netflix_cust_Configuration_Prod_MySQL_Build_V2.xlsx
+++ b/Netflix/netflix_cust_Configuration_Prod_MySQL_Build_V2.xlsx
@@ -2165,19 +2165,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_7" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_6" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="list_1" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_3" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_3" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="list_2" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2185,23 +2185,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_6" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_4" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="junk_7" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="list_2" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="list_1" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
